--- a/2024 List Price Norbaja Copy.xlsx
+++ b/2024 List Price Norbaja Copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1adc6baad0ff7c9/Documentos/-- TurboAir/7 Bots/Turbots/-- Turbo Viewer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive\Documentos\-- TurboAir\7 Bots\Turbots\-- Turbo Viewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A5426E0C-B515-478D-A82A-4C1C0215E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB2A057A-0153-471C-BD8C-0B22AA274A61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E67CF-2D17-4590-BD03-D1060C280A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D18580F2-5591-4C3C-AE5D-F6A95C4A2ADD}"/>
   </bookViews>
@@ -14878,7 +14878,7 @@
   <dimension ref="A1:O1211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="111" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
